--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/81_Zonguldak_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/81_Zonguldak_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1EC22E-8383-4CA7-B04F-8C84F7E69DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F510AE51-6E33-4241-849A-BBFF278001B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9624ACA6-7225-44B5-9F03-201CB5C70661}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C8ACF06-270C-49D2-86D8-5F9E8F5DCE58}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{BBD61AC7-482C-4452-85FD-E9EA7432958B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{AB9B0172-E85D-4058-8B9A-054885D96081}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{3894DD25-7212-47F5-B2C6-5448309E7A36}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{A855818D-6B04-4EBD-97D9-611123BB1847}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{E7225856-16E2-4EA3-83BF-A7A5F9ABB011}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{1FD7907D-E6A4-442D-8DD3-FE4F7FF395BA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{6D16A3D5-F521-4F59-B5AC-998EB1D64674}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{31D5F8A5-F1A2-4F19-AD46-03203FB92784}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646FF6DA-67BE-4DF3-BA66-F19DE3719E03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9147C062-F95A-484D-9012-2BF27A129CFA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2445,18 +2445,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7C63F2D6-3242-447F-825C-760EA113B8FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1CF85342-2755-4C9C-9771-4762BB341277}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5BA720EF-C238-4271-8EFF-A4DBB5339D54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{91F35FD2-F75C-4AE5-9D61-7F2DB0AD5C3D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{24C8B2C3-C622-4200-A3C4-F614C099F0EB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{99275463-D5D2-4838-AF9C-CF701B614A8C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4F871978-C7BA-410E-A49B-E6F778408EAE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0F795354-8D01-4BED-8CC4-C9B3EA9A6939}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BBD2871E-B5C4-4BC7-9556-068562DCD009}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D17CE278-7F0B-4B71-A650-08A6DEE9FC5B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{29ED0A2D-F3C2-4BA5-825E-0ABD5216AE10}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{81A7354C-E232-43CE-B21D-1253586B0947}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C8580F9B-6A44-4AC7-A3C4-EB087309B302}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{63F9C314-99F2-4104-97AF-38F37919BCFD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E42012DC-2241-4E98-8CDF-A60DB37BB1E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{029F4056-5353-4B5E-A6B5-14391A408E78}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D4FB8AC8-A018-450F-B3B0-DA4E543F9CCB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2282A5D8-570B-4790-9F93-2E7248D5F82C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{36197668-795F-4EFF-ADD8-C938B7FA5108}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{64EFB8C0-C23C-4D5D-B577-73F9EC0A3AB3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D4B57BEB-3C06-401E-8051-3B3D2F71FFB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{36B5D7AF-5AF9-48C6-8C80-D4F5314D6B18}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3407FDA7-7730-4DF1-8069-C4792DE404F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F951C42A-7813-4D8F-913A-B35B40B36574}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2469,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574EEE4C-EF23-452B-9D31-92D448F83670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D34B92D-E76D-4EE2-B80D-38EBA07DBC03}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3670,18 +3670,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{47EAC316-7DD7-4745-A8AC-5FE41C1B63DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5E1A667D-CF11-43E1-8C1C-866FACD403B1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{679264A6-771D-40E4-8782-940DDDE7FA5A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F941D9CE-4E4E-4CC1-BEFB-2B4AE198FAD3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{23126B37-6A41-437D-94BA-3A49C285EE28}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F0074C82-7075-43F5-B7A2-82C428529C36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4E967901-424E-45E6-BB9D-B7C59E4920C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D79F2AF5-7912-47DA-B48F-005D71710BA6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{397AEE56-5379-4C2C-8B9F-8071444A6D5A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{63EAFFA7-66F8-4C41-8E50-1962CD4BD80B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5BBC62BC-427B-4DAA-9293-54579A7599F3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5E237DFE-753D-4861-8BF6-081D2DB27D3A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{54008705-B538-4CBF-8666-65866551F32D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E6D9233A-1F72-4F8D-ADE2-4B2C2B4A5264}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B24C2BED-29B8-4461-A881-D19F17F89721}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{11F2774D-F132-48B7-9D04-90679910D7EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{10DF5470-00CC-4E10-9579-01165E383F1E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{547378EA-4BC7-4567-ACFB-03673D412F49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{13FB8C58-9581-4E49-B0FB-755BF520B948}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{88EABA60-16A6-43A7-AD1D-55B52A277DA0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F0417FE1-67BE-42CA-B5C3-55234DF9BC84}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3F5E94CC-9CCE-47DF-913D-472C0E613DD0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{60569409-8A2C-4744-8273-3F84A2927BE5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{98368E22-96E7-4AEF-8485-3687DF3F047B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3694,7 +3694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2691051D-101A-4D97-9521-C7078B6B867C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EB5E50-D00D-48B1-B87D-22B9249A6931}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4887,18 +4887,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DC9B800B-92B9-4995-9E42-D509CEA94478}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5CD06FBF-6AD0-4A22-9DC0-5FC2C1FA0767}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ADDA8695-D9E3-4A22-9098-EE95B02A6A01}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{660AD4D7-40AF-462F-B5C2-14BD4C501AB7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{63A6F3D3-85A8-4F26-A3EE-1A093DF82497}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E78E2C8F-87F8-4C62-9016-F9A6DA342300}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{61E33336-FDC1-4CD7-A7CA-45C3921EEAC3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B449D18A-7913-4A2E-B44E-699D21255671}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1364D2C3-5590-43D0-8EAB-999C3F761067}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{04A6FCF8-24EB-4D9A-BBFD-8554B85D252B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2BE230BC-8311-4E29-9CC5-9FABDF001F5E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{011B53DF-C044-4C33-8E95-22DB2411DBDA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{009A9F3E-7CFF-4FF6-97BC-C8B5A0A4E457}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5F5A3378-F15A-433C-9026-9F8EDB7D1BE5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8324191D-8383-4FDA-B46C-56EBACEDC110}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B98ED26B-8A59-4964-A98C-1781FBC83618}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B4758F2C-6288-48D9-ABB2-D9C06BE79CCE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B66E703C-40FD-4870-9B55-4253699094CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AC1A5FCE-6968-4DA6-9A37-A08E244106C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D1EABBFF-BEF6-4F7B-9384-645AC11197AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F459D7D1-EDFF-41D4-A603-220A32A1E1F1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{333763BB-991C-4FAA-A239-909CB0ACFD25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{81CB845E-2B2E-4380-A8AD-25E3DF431327}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8E5AC64E-DC1A-4EA0-8D1F-FBF69514F956}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4911,7 +4911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E24F0FC-A9E5-4B08-8EF7-30D43A6D2D29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA64F20D-EEE5-410D-A1EA-1D34BA74F5FE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6096,18 +6096,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{61226B79-8525-4566-AD83-7C1BC3A62926}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2811B490-5141-49AB-8F3C-D89CDD8518A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CC44B140-6D62-457D-A727-DF1C60A732F4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DC952CA0-E5AA-4FB4-BA72-88B5EBF3B41B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4907741C-EC6F-489B-8AF4-DDC09475B08A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DBFA2A49-B0DB-41B8-A41A-186A85BB597E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BA5A8163-6B08-4D6F-A3AC-32EAAFE8F859}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3F2C4DC5-094E-4DEC-8A95-5228B460866F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CF5368DA-191D-4A01-9199-99EA4721A80E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{80B4AE7A-6084-4A2B-8895-5F3F45086FFA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{70670C96-8301-42F0-8F9C-468F95D5A223}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DE818E81-7865-4069-926C-822FBC2B8281}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5641FFCD-2256-486B-8D07-E4CDAA37E1BE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{726F4E5A-DE16-4B5C-B57B-5BE3FEB43E74}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{410574F4-2B59-4EB0-83D2-BB1744310824}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D59A1F48-EB1C-4789-96FC-E17C0563E9AF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{60393C88-5E89-4488-BDDE-25C8CBEC6A95}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E15DA0A8-F035-41D7-B464-000D179A3549}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DFA99FD8-8022-4EBB-B6D2-34B62E7E9F0E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4BC46A61-F693-4BE7-BD76-DD52E3A907EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D560FD45-68E9-42DD-806F-16656C804ED8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{19163FD3-B8D5-4877-8CFF-659B788E3A54}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{83DEC546-085F-434C-8FB7-45BDAAD429B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BCAB084D-3134-49C5-8939-87A8E31C442B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6120,7 +6120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73B6466-EDD0-449B-AB49-800DC0C2C624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED14C29D-7FC4-42F6-B077-8C84ED962AC0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7329,18 +7329,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C86EE184-E3F9-4F01-A28F-16BEB07CA7C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{735846F7-B4F7-4840-8CFF-6C915ED4F584}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{10AD3E2B-ADE5-4A11-8EFE-B5F953F7059E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6934351F-F6D5-46EC-A47A-50125021C92E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{246D430A-EDF8-44C4-AC00-97988305A8EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{72AD8634-79E4-48AD-9296-2C9B5427DDB8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E0A71CC3-1997-4D7C-B49E-6F2F7A1CF438}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F06C9251-B925-41AD-B7A9-7F10E909585E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C9B0358C-04D0-4CFB-8CE8-8B900EB6DED2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DD994ED5-47A6-4EA6-B719-E0EFE64D35D8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C0EC6850-1747-490F-9E29-81DC22B9F6F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{484AAAD1-FF3A-4C7D-B3CA-48EAFCCBD364}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5DEB08F9-875D-4D98-BA63-B1759FB52969}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6C9486E2-FC5D-4662-9CCE-74C4877AB356}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4834B996-363D-4578-8E10-46BC35AE59A3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{82AA7883-32C6-4D72-93BF-17203439CFE7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{034F19F5-38CD-4262-A16C-FD47C94ED2C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4FF6B437-A68D-4BEA-BE36-879D87E20BE7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{906A8BC7-411C-479D-AC6B-6B8E156A699E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{84FB988F-D7D8-4DA3-A3CA-D27B3C9FD82A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AB8095C1-66BD-4546-AD8C-D879E5EA6781}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E7FFC381-2E3E-4600-ACDE-BB48D87269E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{52FD754B-D39F-48C8-BE20-2581A2BA840B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7F6CFE2F-3AD4-4B78-A794-2FB5E3110A31}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7353,7 +7353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E3602E-FE65-4801-A415-9A1834DFF9A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23FA7A9-8E55-49D7-A6F4-E4B36ABE2920}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8562,18 +8562,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{78559430-88EB-4584-B17E-C724D9D95DB3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D60F85D3-E2E5-4819-AD11-3D7451BED757}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E4CDA77C-5043-4C0D-9959-52BAE07E2DE6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A9CA3D38-A927-409B-BAA2-BB979322B9C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0C6A5FC4-D563-4E28-B94A-17ABE594AB04}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EE88C7DA-3597-462A-8D4F-F0753B352663}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4B287AA6-6672-41A8-A325-95BD20DAD9FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{836FA0DF-C1D0-4E05-8785-A7EE7F7FB32E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{143B2954-FF4C-487E-869F-6794DC498B7E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F95D1A91-0619-434A-AADB-0E074173CF51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1DABEE09-B253-49B7-859A-AC4652E07BC3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D2388342-BC9E-4557-99B1-36B37B186150}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0B096334-8886-44CA-A2AC-C097C63D4288}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{40DCCF2F-88D3-42A2-8774-E7BC5D1C4689}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D050E50E-F19E-4FC0-8F11-95791D490D98}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{23644604-236F-48A6-8571-5D4F36F81F97}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8AA018F0-7747-48FC-A417-CFFAAFD5248C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3C29086C-1CB2-4916-B717-ED424F52CC71}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{541A5539-852F-43F2-899D-5C8A9257B173}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9EAE8966-56C5-45EF-9F5E-4C946AA95AA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2DBF0960-FFE9-4FF0-9588-F3EC1192D8AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C428778D-4B47-4290-AF80-36DD8113861C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2BAA3A61-467D-4515-871E-1B39AB2CD5E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EAD1B1D9-CB4D-4C75-BA1A-25CB60A8A129}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8586,7 +8586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB96ABA1-5565-4B1C-A53F-8A44692BFF4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C29C39C-6BC1-402E-9B42-809C3C5E0A4B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9797,18 +9797,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{95D4639C-5587-4363-8387-F2264414B83E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{718DE38B-1E0A-46BC-AB6D-69DCB621D8B1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6E566F52-7F26-4BD7-9A9E-DC61DC84D741}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F8F17FFC-169E-4F25-849E-8C7ABADD607E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6AFB9644-E97F-4E19-BDC5-95B3FC13958A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{15555A08-6394-4302-AA14-B99AB194C573}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FC5674B1-7370-4C65-B62E-0E379D02B79B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BD0300E4-F328-49AF-AEE9-53A756F5B81E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B79DFD5A-DEB8-4FF9-979D-2042CEF372FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A79257A9-362C-4277-B651-A45C757C48B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5ECEC3B8-409F-4E28-8376-94A1547A3530}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5C866BCF-F691-467B-A7D7-262F066C2192}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{70F94F4B-D481-4F0D-AB9E-BD95ED9B803B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EF6E6125-09AA-4AE4-8542-F1EDCD1E520C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9B55FBED-2FA2-4A17-89E2-235DAE368CA7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CC41F29F-B07A-4B69-AB27-4239111208FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C1818D06-0D96-4D7E-BBAA-B330A14D1859}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{773BEE4D-93A3-4013-93A2-AA9BC6625897}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F4539FB4-59FB-4B9D-8F04-0EC8845A81C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C85E9A31-2492-4674-9F69-9165ACFF1A5B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{376BFDA4-4763-4BFF-A20E-E087217DD990}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{25875E90-C5E7-46E4-8B5A-9129478CBA07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{80A270BF-A0D2-4B0A-B4C2-8717AC896590}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{537D5094-9C37-4621-97D0-282B77BAB44B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9821,7 +9821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FA64D5-98EC-42F8-97E2-EC8B2E5917D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBD7351-EACE-4A7A-BC2C-9C84728961F0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11028,18 +11028,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B7A6ACE9-A4EC-41E8-A954-C747E58A903A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CA746BFB-299B-45DC-BA9A-D4B8DA4063A9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3C11291A-3DE3-44F8-8A19-7BC4D7AD6037}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5C7C8ED9-C856-4C5C-B471-BC9D468A020C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{84FE0C63-14B5-4719-A3A2-05247F4F49C1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8AB18B57-17A9-4784-AA16-0D46ECAC26C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{98EF5556-7CB8-488D-8184-18B647AA1765}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9E634AE3-D3A7-4477-B4B9-AA5812A6AD73}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9B4EA0FF-940F-41DA-92A3-318F23441F9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{472199E8-B8AB-4271-9C65-F1D1FFB3CDA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C53E1566-A24B-48E4-8DB5-E54BF604FD02}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{29FE355E-E86A-4878-98B9-7D5AE3176F0E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4020EAF5-69EF-4DD8-A1B2-EBEBBE40F8B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1F370CE4-0004-4151-B1BF-80D76DB144BD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{695884CA-DE19-405A-94C8-EB2FF40CFC8A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{193B64C2-DB6C-42BC-B021-886097EE2905}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2E5B4D53-0602-47CE-96D7-7DE9B11EBC28}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8936D7D3-709D-4A0A-B73C-7577D61CBD97}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AFEC6281-8DBC-4412-84A7-6E990550D9A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{64AAA441-520A-409A-B476-EB16528CE40F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1D280F5B-29D8-4ECC-8F21-A0E34BD52330}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B9D3B91C-7A41-44D2-B46F-C663685DCA97}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1B434C66-89BC-42C1-985D-9D8EA17A4485}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{44854F13-7AF5-4931-AC3A-21B59686A352}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11052,7 +11052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CB129A-53E1-4F11-80E6-27D82DE5C1F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE4F60-197D-4F8B-997C-541B01BFDE41}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12255,18 +12255,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{00397193-E231-458D-9661-2361922950C9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D6E536D4-74ED-489C-B58D-7FA86DE3E338}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{17B7C543-98E2-4337-8611-3C6F9F177DA4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0E8D4C35-8A6A-466A-9A61-C22546C04E01}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{38B02DF8-BF71-46B6-84E5-27FD81268C8E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{58745563-A165-45D6-825D-D44637B986FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8F6E5CDA-0A5E-4BE6-A2C8-E0A82C97B6FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{58B71F06-7622-46D1-AF49-65B017B12828}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{96190AB8-4EC1-4BE7-A423-B25D11F3B21A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B92BCDE1-08B5-49F8-8B52-0AA4934B83C9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{90C6EC48-B6B2-41AB-B7F3-04DF6F39B147}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3C65666E-948D-44A6-82CE-B14033C92E0C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C549A563-1CE1-44D4-8A90-5F10BBD9A496}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5F387A20-424D-4A21-BB15-96A63CA60E74}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CAF085B9-9A36-4369-8BBF-66E71F646AD9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8829517F-FB4E-4244-A135-15D238CB94EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{40986BB3-11B5-401E-AC83-A18D8E3C9612}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{508C11E1-8275-4447-85DA-A229A27CDB93}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F80EC5AC-8F81-4CF7-9216-FDD373DE470C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FDBE5650-BF61-453E-B35A-AB0BF4729108}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5618C55C-6614-4EFA-ADA3-D084766AA4D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0DD76637-F4E1-4892-9CD4-A5AD0AE5C486}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D6A3758F-5F36-446E-AD90-89E040B027B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AC40E2CD-ABA6-4E0F-8671-A94F7B7AC3D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12279,7 +12279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5927D7-C834-411B-A7FB-7F9E184A381B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18622D8F-E245-46FC-921F-5F29B155F523}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13482,18 +13482,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{83873BED-5361-42B4-9436-625023DC065B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5867127A-B894-4E9E-8C3D-43421B4B9FAF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B39B8B56-BE50-40A1-91C4-C111C379610D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{73FD041F-0C22-4BCD-B056-CB0F427BE3FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{33256FD9-FB13-457B-90AD-A146A2FD8862}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2F43C719-C496-436F-815D-C5198DC9A860}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CE72E143-2023-451E-A70D-8E589E88DC45}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{212E5D76-7C1F-450C-B413-8AEB51BC6486}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9EE43AA0-0749-4ADD-9FC0-766030D42F92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7DED1AE7-3487-4189-BB5A-7F236F9ABEC7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{33A030DC-5C17-4B5D-B757-2A39AB1986F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E8589043-48D6-464E-A970-FD1CB398F24D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8E971D7C-8326-481E-BCB0-202BC99966B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9DDC5FBD-2A68-419E-A92E-801E1116D993}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CC9FC188-3F7D-45EB-BFA8-BDA7C0F9EF21}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EB9EDD96-0CAE-4E8D-9A6E-B70DF1D1F301}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{967C0FDA-6FD6-4638-9C74-4983946105D1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DDB3A746-C293-471A-A8A3-AF0500274FD9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3B99EFC6-E184-48E0-ACB4-06266E9FCFAD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{04A9F123-6D41-4858-A2C2-12AB6527CAAB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FF936D0B-C0F0-4758-99B7-C8E148EF89F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BB1C6494-CE19-4861-8A0B-DD364F66D8C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{276B3C06-3D74-4CED-8DB7-BF4A939D7DF6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{343B6AFE-6240-4AD7-B53E-552B5843362E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13506,7 +13506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD493C5-D2AD-46CC-8F8B-9C5E42E3DFE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A01EB15-AB9E-4686-985C-E43510EC1B09}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14707,18 +14707,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{796E143E-0FE1-4867-BD5C-5124A4DC8CD0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9039BAFA-38FF-4B37-ACEF-7BA044F4B5A0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{63D5A5AB-B7D2-478C-9F71-D6E630A360B6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{363880C3-47C7-4CCB-8E57-854C4EB67FE6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5B373A4C-B734-486A-9A87-4475C59DDB2B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C4179EEB-337A-4F9A-95CD-CF144488DBB0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{70713D6A-F022-4269-8649-D122844518C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F7ACACB6-A7F2-48D0-8C79-39F313515D2E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E0D87EFE-35D8-4AB4-B699-490218B3F350}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1560A49A-13A9-41BE-8CB7-F3ED0382863E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CFF035F2-64FA-40C5-BF3C-3A27FDF075D0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{935043F5-96A0-4F83-914C-A1E13AB9FDDB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{849DF181-C96B-4DA2-81C8-409072933511}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FE7BCF84-BF55-4E8B-9409-DEF95C43C3DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DDB827D2-ED06-4AC1-B3AA-B0C905F9A0BB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{87986E07-45BF-43AD-9554-3081FFE352E6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{274F7512-EF84-4610-9C7A-FE3624EB3EFC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4BFCAD55-D34C-4974-B217-B53D48CA2506}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6001A074-7CF1-44C4-8462-74A41C5C8FE1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{06F678AE-A1DD-453E-8A6A-93B414D72024}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{189086E4-B1EA-4F44-9B1A-E51CA27151F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{15A76AEA-3ABF-4CAA-8BC5-346F34E78225}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0D0C0E8F-1E98-421C-B813-6C8ADCF42030}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CB56DDC1-914F-4C50-B383-DEE2274BBBC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14731,7 +14731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4FC0A1-494D-4635-A81F-8F0ED2A7B86D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF14D17-1667-4168-B2B8-3D5BD43A90AA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15932,18 +15932,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{975C4D31-0E1E-48C8-ABF0-4974FA1E8A74}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1258BD5A-30E7-4235-83A2-641C45EA7A3D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E8D2C417-B01E-4E86-B74B-9D7775C615A0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4B8D16DB-093E-4800-8980-D8169C61BE96}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8D367683-D369-4798-B452-3FE362373ACE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CE29036A-301E-4CB5-B7A6-CBD68619A6AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4C74E892-5ADC-424D-99C3-1653C8789CE5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C1200DD6-4AEA-40BC-94D3-035C8270AAA8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6646E979-D299-46E1-B598-5A14DA54D4F0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C23D0D13-70F6-4412-A40B-4CD71591DD32}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D34A2F4E-243E-4426-8A8B-4960E28020E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4D562CB3-4730-4E13-BA43-CAB5055AF8E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{258BA416-1AF2-4F53-B087-A20743B0BE20}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8160F563-7707-41E4-890F-3311DBF2651D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D1E41D51-7A0B-4C7D-BE42-668315165C8C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3057D673-9774-41A9-A5A9-6F84833DF0EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{275BAF5E-AA13-4CBD-A060-79BE7CBDEA3E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DEDEE335-4DB6-426F-AEC3-AFC9ED674C0C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D3E4C112-2D49-4F80-9EF9-72DD5E39096E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7969E72C-DEEF-48F8-BB5D-BFDA6D8FE163}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A3FFA5DA-ECD6-4600-A23E-1557EDD293BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2294AD3F-917C-4E2A-A60A-3A7D95D01418}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DC91F8BF-82CC-4B87-8482-7A923367F4FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E4F35D22-D6C7-47C6-923C-EA2FDE7AA121}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
